--- a/biology/Médecine/Marcellus_Gilmore_Edson/Marcellus_Gilmore_Edson.xlsx
+++ b/biology/Médecine/Marcellus_Gilmore_Edson/Marcellus_Gilmore_Edson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcellus Gilmore Edson, né le 7 février 1849 à Bedford (Québec) et mort le 6 mars 1940, est un pharmacien canadien de Montréal qui a breveté le beurre de cacahuètes (pâte d'arachide) en 1884. 
-Son produit refroidi avait « une consistance semblable à celle du beurre, du saindoux ou de la pommade », selon sa demande de brevet. Il a inclus le mélange de sucre dans la pâte pour en durcir la consistance[1]. 
-Edson a développé l’idée de la pâte de cacahuète en tant qu’aliment délicieux et nutritif pour les personnes qui ne pouvaient à peine mâcher de la nourriture solide, un état courant à cette époque. La pâte de cacahuète était initialement vendue à six cents la livre[2]. 
-Le brevet américain 306727 lui a été délivré en 1884[3]. Le brevet décrit un procédé de broyage d'arachides grillées jusqu'à ce que les arachides atteignent « un état fluide ou semi-fluide ».
+Son produit refroidi avait « une consistance semblable à celle du beurre, du saindoux ou de la pommade », selon sa demande de brevet. Il a inclus le mélange de sucre dans la pâte pour en durcir la consistance. 
+Edson a développé l’idée de la pâte de cacahuète en tant qu’aliment délicieux et nutritif pour les personnes qui ne pouvaient à peine mâcher de la nourriture solide, un état courant à cette époque. La pâte de cacahuète était initialement vendue à six cents la livre. 
+Le brevet américain 306727 lui a été délivré en 1884. Le brevet décrit un procédé de broyage d'arachides grillées jusqu'à ce que les arachides atteignent « un état fluide ou semi-fluide ».
 </t>
         </is>
       </c>
